--- a/海南岛鸟类名录2024.xlsx
+++ b/海南岛鸟类名录2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\飛魚\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D117F7-5F00-4F9E-991A-732DA1ABA7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F485686-4086-4630-8CB8-4CBC92746B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-110" windowWidth="21670" windowHeight="14220" xr2:uid="{4F097E7A-E040-40DB-A821-215FEA5DE3F5}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="附表 Ⅲ" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'附表 Ⅰ'!$A$1:$J$484</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'附表 Ⅰ'!$A$1:$J$485</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'附表 Ⅱ'!$A$1:$J$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'附表 Ⅲ'!$A$1:$J$508</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3519" uniqueCount="1677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="1682">
   <si>
     <t>鸟种类别的定义如下：</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -5152,7 +5152,25 @@
     <t>Hen Harrier</t>
   </si>
   <si>
-    <t>23目89科481种</t>
+    <t>中华凤头燕鸥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thalasseus bernsteini</t>
+  </si>
+  <si>
+    <t>Chinese Crested Tern</t>
+  </si>
+  <si>
+    <t>国家一级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>23目89科482种</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5571,7 +5589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C1BB4B-E824-4A1F-A697-7C017759204F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5634,12 +5654,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBBCE626-9985-4C19-879B-8C96FD58FF53}">
-  <dimension ref="A1:J482"/>
+  <dimension ref="A1:J483"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B8" sqref="B8"/>
-      <selection pane="bottomLeft" activeCell="U33" sqref="U33"/>
+      <selection pane="bottomLeft" activeCell="M180" sqref="M180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -5686,7 +5706,7 @@
         <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>1676</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -10602,16 +10622,16 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" s="5">
-        <v>4444</v>
+        <v>4442</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>635</v>
+        <v>1676</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>636</v>
+        <v>1677</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>637</v>
+        <v>1678</v>
       </c>
       <c r="E188" s="5" t="s">
         <v>407</v>
@@ -10620,24 +10640,27 @@
         <v>604</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>43</v>
+        <v>1679</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>1680</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" s="5">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E189" s="5" t="s">
         <v>407</v>
@@ -10649,21 +10672,21 @@
         <v>43</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" s="5">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E190" s="5" t="s">
         <v>407</v>
@@ -10675,21 +10698,21 @@
         <v>43</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" s="5">
-        <v>4449</v>
+        <v>4446</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E191" s="5" t="s">
         <v>407</v>
@@ -10706,16 +10729,16 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" s="5">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>407</v>
@@ -10732,16 +10755,16 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" s="5">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E193" s="5" t="s">
         <v>407</v>
@@ -10758,16 +10781,16 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" s="5">
-        <v>4453</v>
+        <v>4451</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E194" s="5" t="s">
         <v>407</v>
@@ -10784,16 +10807,16 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" s="5">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E195" s="5" t="s">
         <v>407</v>
@@ -10810,42 +10833,42 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" s="5">
-        <v>4456</v>
+        <v>4454</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E196" s="5" t="s">
         <v>407</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>662</v>
+        <v>604</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" s="5">
-        <v>4458</v>
+        <v>4456</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E197" s="5" t="s">
         <v>407</v>
@@ -10862,22 +10885,22 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" s="5">
-        <v>4462</v>
+        <v>4458</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E198" s="5" t="s">
         <v>407</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>43</v>
@@ -10888,16 +10911,16 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" s="5">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="B199" s="5" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="E199" s="5" t="s">
         <v>407</v>
@@ -10906,10 +10929,7 @@
         <v>669</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H199" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I199" s="5" t="s">
         <v>59</v>
@@ -10917,45 +10937,45 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" s="5">
-        <v>4465</v>
+        <v>4463</v>
       </c>
       <c r="B200" s="5" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E200" s="5" t="s">
-        <v>676</v>
+        <v>407</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" s="5">
-        <v>4466</v>
+        <v>4465</v>
       </c>
       <c r="B201" s="5" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="E201" s="5" t="s">
         <v>676</v>
@@ -10975,16 +10995,16 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" s="5">
-        <v>4467</v>
+        <v>4466</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E202" s="5" t="s">
         <v>676</v>
@@ -10999,27 +11019,27 @@
         <v>32</v>
       </c>
       <c r="I202" s="5" t="s">
-        <v>684</v>
+        <v>27</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" s="5">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E203" s="5" t="s">
         <v>676</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>31</v>
@@ -11028,21 +11048,21 @@
         <v>32</v>
       </c>
       <c r="I203" s="5" t="s">
-        <v>27</v>
+        <v>684</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" s="5">
-        <v>4472</v>
+        <v>4468</v>
       </c>
       <c r="B204" s="5" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E204" s="5" t="s">
         <v>676</v>
@@ -11062,16 +11082,16 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" s="5">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="B205" s="5" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E205" s="5" t="s">
         <v>676</v>
@@ -11091,16 +11111,16 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" s="5">
-        <v>4478</v>
+        <v>4473</v>
       </c>
       <c r="B206" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="E206" s="5" t="s">
         <v>676</v>
@@ -11120,16 +11140,16 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" s="5">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="B207" s="5" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E207" s="5" t="s">
         <v>676</v>
@@ -11149,16 +11169,16 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" s="5">
-        <v>4482</v>
+        <v>4479</v>
       </c>
       <c r="B208" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E208" s="5" t="s">
         <v>676</v>
@@ -11178,16 +11198,16 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" s="5">
-        <v>4485</v>
+        <v>4482</v>
       </c>
       <c r="B209" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E209" s="5" t="s">
         <v>676</v>
@@ -11202,21 +11222,21 @@
         <v>32</v>
       </c>
       <c r="I209" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" s="5">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="B210" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E210" s="5" t="s">
         <v>676</v>
@@ -11231,21 +11251,21 @@
         <v>32</v>
       </c>
       <c r="I210" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" s="5">
-        <v>4493</v>
+        <v>4486</v>
       </c>
       <c r="B211" s="5" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E211" s="5" t="s">
         <v>676</v>
@@ -11260,21 +11280,21 @@
         <v>32</v>
       </c>
       <c r="I211" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" s="5">
-        <v>4495</v>
+        <v>4493</v>
       </c>
       <c r="B212" s="5" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E212" s="5" t="s">
         <v>676</v>
@@ -11294,22 +11314,22 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" s="5">
-        <v>4497</v>
+        <v>4495</v>
       </c>
       <c r="B213" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E213" s="5" t="s">
-        <v>719</v>
+        <v>676</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>31</v>
@@ -11318,27 +11338,27 @@
         <v>32</v>
       </c>
       <c r="I213" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" s="5">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="B214" s="5" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E214" s="5" t="s">
         <v>719</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>31</v>
@@ -11352,16 +11372,16 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" s="5">
-        <v>4502</v>
+        <v>4498</v>
       </c>
       <c r="B215" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E215" s="5" t="s">
         <v>719</v>
@@ -11381,16 +11401,16 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" s="5">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="B216" s="5" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="E216" s="5" t="s">
         <v>719</v>
@@ -11410,16 +11430,16 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" s="5">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="B217" s="5" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E217" s="5" t="s">
         <v>719</v>
@@ -11439,16 +11459,16 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" s="5">
-        <v>4511</v>
+        <v>4504</v>
       </c>
       <c r="B218" s="5" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E218" s="5" t="s">
         <v>719</v>
@@ -11468,16 +11488,16 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" s="5">
-        <v>4514</v>
+        <v>4511</v>
       </c>
       <c r="B219" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E219" s="5" t="s">
         <v>719</v>
@@ -11489,24 +11509,24 @@
         <v>31</v>
       </c>
       <c r="H219" s="5" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="I219" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" s="5">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="B220" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E220" s="5" t="s">
         <v>719</v>
@@ -11526,16 +11546,16 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" s="5">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="B221" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E221" s="5" t="s">
         <v>719</v>
@@ -11547,7 +11567,7 @@
         <v>31</v>
       </c>
       <c r="H221" s="5" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I221" s="5" t="s">
         <v>59</v>
@@ -11555,16 +11575,16 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" s="5">
-        <v>4518</v>
+        <v>4516</v>
       </c>
       <c r="B222" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E222" s="5" t="s">
         <v>719</v>
@@ -11584,16 +11604,16 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" s="5">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="B223" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>719</v>
@@ -11602,10 +11622,10 @@
         <v>724</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H223" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I223" s="5" t="s">
         <v>59</v>
@@ -11613,16 +11633,16 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" s="5">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="B224" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E224" s="5" t="s">
         <v>719</v>
@@ -11634,7 +11654,7 @@
         <v>25</v>
       </c>
       <c r="H224" s="5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I224" s="5" t="s">
         <v>59</v>
@@ -11642,16 +11662,16 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" s="5">
-        <v>4522</v>
+        <v>4520</v>
       </c>
       <c r="B225" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E225" s="5" t="s">
         <v>719</v>
@@ -11660,10 +11680,10 @@
         <v>724</v>
       </c>
       <c r="G225" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H225" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I225" s="5" t="s">
         <v>59</v>
@@ -11671,16 +11691,16 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" s="5">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="B226" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E226" s="5" t="s">
         <v>719</v>
@@ -11695,21 +11715,21 @@
         <v>32</v>
       </c>
       <c r="I226" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" s="5">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="B227" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E227" s="5" t="s">
         <v>719</v>
@@ -11729,16 +11749,16 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" s="5">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E228" s="5" t="s">
         <v>719</v>
@@ -11758,16 +11778,16 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" s="5">
-        <v>4526</v>
+        <v>4525</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E229" s="5" t="s">
         <v>719</v>
@@ -11787,16 +11807,16 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" s="5">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>719</v>
@@ -11816,16 +11836,16 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" s="5">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E231" s="5" t="s">
         <v>719</v>
@@ -11845,16 +11865,16 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" s="5">
-        <v>4531</v>
+        <v>4528</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E232" s="5" t="s">
         <v>719</v>
@@ -11874,16 +11894,16 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" s="5">
-        <v>4534</v>
+        <v>4531</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E233" s="5" t="s">
         <v>719</v>
@@ -11903,16 +11923,16 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" s="5">
-        <v>4536</v>
+        <v>4534</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E234" s="5" t="s">
         <v>719</v>
@@ -11932,16 +11952,16 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" s="5">
-        <v>4538</v>
+        <v>4536</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E235" s="5" t="s">
         <v>719</v>
@@ -11950,27 +11970,27 @@
         <v>724</v>
       </c>
       <c r="G235" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H235" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I235" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" s="5">
-        <v>4542</v>
+        <v>4538</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E236" s="5" t="s">
         <v>719</v>
@@ -11979,10 +11999,10 @@
         <v>724</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="I236" s="5" t="s">
         <v>59</v>
@@ -11990,16 +12010,16 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" s="5">
-        <v>4545</v>
+        <v>4542</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E237" s="5" t="s">
         <v>719</v>
@@ -12011,24 +12031,24 @@
         <v>31</v>
       </c>
       <c r="H237" s="5" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I237" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" s="5">
-        <v>4548</v>
+        <v>4545</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E238" s="5" t="s">
         <v>719</v>
@@ -12048,22 +12068,22 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" s="5">
-        <v>4553</v>
+        <v>4548</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E239" s="5" t="s">
-        <v>800</v>
+        <v>719</v>
       </c>
       <c r="F239" s="5" t="s">
-        <v>801</v>
+        <v>724</v>
       </c>
       <c r="G239" s="5" t="s">
         <v>31</v>
@@ -12077,22 +12097,28 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" s="5">
-        <v>4560</v>
+        <v>4553</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F240" s="5" t="s">
-        <v>806</v>
+        <v>801</v>
+      </c>
+      <c r="G240" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H240" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I240" s="5" t="s">
         <v>27</v>
@@ -12100,28 +12126,22 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" s="5">
-        <v>4562</v>
+        <v>4560</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="E241" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="F241" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="G241" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H241" s="5" t="s">
-        <v>32</v>
+        <v>806</v>
       </c>
       <c r="I241" s="5" t="s">
         <v>27</v>
@@ -12129,16 +12149,16 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" s="5">
-        <v>4565</v>
+        <v>4562</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E242" s="5" t="s">
         <v>810</v>
@@ -12158,16 +12178,16 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" s="5">
-        <v>4567</v>
+        <v>4565</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E243" s="5" t="s">
         <v>810</v>
@@ -12187,22 +12207,28 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" s="5">
-        <v>4572</v>
+        <v>4567</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E244" s="5" t="s">
         <v>810</v>
       </c>
       <c r="F244" s="5" t="s">
-        <v>821</v>
+        <v>811</v>
+      </c>
+      <c r="G244" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H244" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I244" s="5" t="s">
         <v>27</v>
@@ -12210,25 +12236,22 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" s="5">
-        <v>4573</v>
+        <v>4572</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E245" s="5" t="s">
         <v>810</v>
       </c>
       <c r="F245" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="G245" s="5" t="s">
-        <v>43</v>
+        <v>821</v>
       </c>
       <c r="I245" s="5" t="s">
         <v>27</v>
@@ -12236,16 +12259,16 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" s="5">
-        <v>4575</v>
+        <v>4573</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E246" s="5" t="s">
         <v>810</v>
@@ -12253,22 +12276,25 @@
       <c r="F246" s="5" t="s">
         <v>825</v>
       </c>
+      <c r="G246" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I246" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" s="5">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E247" s="5" t="s">
         <v>810</v>
@@ -12276,28 +12302,22 @@
       <c r="F247" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="G247" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H247" s="5" t="s">
-        <v>150</v>
-      </c>
       <c r="I247" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" s="5">
-        <v>4577</v>
+        <v>4576</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="E248" s="5" t="s">
         <v>810</v>
@@ -12305,22 +12325,28 @@
       <c r="F248" s="5" t="s">
         <v>825</v>
       </c>
+      <c r="G248" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H248" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="I248" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" s="5">
-        <v>4578</v>
+        <v>4577</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E249" s="5" t="s">
         <v>810</v>
@@ -12329,21 +12355,21 @@
         <v>825</v>
       </c>
       <c r="I249" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" s="5">
-        <v>4581</v>
+        <v>4578</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E250" s="5" t="s">
         <v>810</v>
@@ -12351,28 +12377,22 @@
       <c r="F250" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="G250" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H250" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I250" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" s="5">
-        <v>4582</v>
+        <v>4581</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E251" s="5" t="s">
         <v>810</v>
@@ -12381,7 +12401,10 @@
         <v>825</v>
       </c>
       <c r="G251" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H251" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I251" s="5" t="s">
         <v>27</v>
@@ -12389,22 +12412,22 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" s="5">
-        <v>4588</v>
+        <v>4582</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="E252" s="5" t="s">
-        <v>847</v>
+        <v>810</v>
       </c>
       <c r="F252" s="5" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="G252" s="5" t="s">
         <v>43</v>
@@ -12415,22 +12438,25 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" s="5">
-        <v>4594</v>
+        <v>4588</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="E253" s="5" t="s">
         <v>847</v>
       </c>
       <c r="F253" s="5" t="s">
-        <v>852</v>
+        <v>848</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I253" s="5" t="s">
         <v>27</v>
@@ -12438,16 +12464,16 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" s="5">
-        <v>4597</v>
+        <v>4594</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E254" s="5" t="s">
         <v>847</v>
@@ -12455,25 +12481,22 @@
       <c r="F254" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G254" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I254" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" s="5">
-        <v>4603</v>
+        <v>4597</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E255" s="5" t="s">
         <v>847</v>
@@ -12490,16 +12513,16 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" s="5">
-        <v>4604</v>
+        <v>4603</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E256" s="5" t="s">
         <v>847</v>
@@ -12508,10 +12531,7 @@
         <v>852</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H256" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I256" s="5" t="s">
         <v>27</v>
@@ -12519,16 +12539,16 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" s="5">
-        <v>4605</v>
+        <v>4604</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E257" s="5" t="s">
         <v>847</v>
@@ -12548,16 +12568,16 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" s="5">
-        <v>4610</v>
+        <v>4605</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E258" s="5" t="s">
         <v>847</v>
@@ -12565,22 +12585,28 @@
       <c r="F258" s="5" t="s">
         <v>852</v>
       </c>
+      <c r="G258" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H258" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I258" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" s="5">
-        <v>4615</v>
+        <v>4610</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="E259" s="5" t="s">
         <v>847</v>
@@ -12588,25 +12614,22 @@
       <c r="F259" s="5" t="s">
         <v>852</v>
       </c>
-      <c r="G259" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I259" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" s="5">
-        <v>4625</v>
+        <v>4615</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E260" s="5" t="s">
         <v>847</v>
@@ -12623,28 +12646,25 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" s="5">
-        <v>4630</v>
+        <v>4625</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="E261" s="5" t="s">
-        <v>877</v>
+        <v>847</v>
       </c>
       <c r="F261" s="5" t="s">
-        <v>878</v>
+        <v>852</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H261" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I261" s="5" t="s">
         <v>27</v>
@@ -12652,16 +12672,16 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" s="5">
-        <v>4632</v>
+        <v>4630</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="E262" s="5" t="s">
         <v>877</v>
@@ -12676,21 +12696,21 @@
         <v>32</v>
       </c>
       <c r="I262" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" s="5">
-        <v>4634</v>
+        <v>4632</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E263" s="5" t="s">
         <v>877</v>
@@ -12705,21 +12725,21 @@
         <v>32</v>
       </c>
       <c r="I263" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" s="5">
-        <v>4635</v>
+        <v>4634</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E264" s="5" t="s">
         <v>877</v>
@@ -12734,21 +12754,21 @@
         <v>32</v>
       </c>
       <c r="I264" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" s="5">
-        <v>4638</v>
+        <v>4635</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E265" s="5" t="s">
         <v>877</v>
@@ -12763,79 +12783,79 @@
         <v>32</v>
       </c>
       <c r="I265" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" s="5">
-        <v>4644</v>
+        <v>4638</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E266" s="5" t="s">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="F266" s="5" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="G266" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H266" s="5" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="I266" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" s="5">
-        <v>4650</v>
+        <v>4644</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="E267" s="5" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="F267" s="5" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="G267" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H267" s="5" t="s">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I267" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" s="5">
-        <v>4654</v>
+        <v>4650</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E268" s="5" t="s">
         <v>899</v>
@@ -12850,21 +12870,21 @@
         <v>32</v>
       </c>
       <c r="I268" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" s="5">
-        <v>4656</v>
+        <v>4654</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="E269" s="5" t="s">
         <v>899</v>
@@ -12876,36 +12896,36 @@
         <v>31</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="I269" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" s="5">
-        <v>4658</v>
+        <v>4656</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="E270" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F270" s="5" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="G270" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I270" s="5" t="s">
         <v>27</v>
@@ -12913,25 +12933,28 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" s="5">
-        <v>4662</v>
+        <v>4658</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E271" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F271" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="G271" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H271" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I271" s="5" t="s">
         <v>27</v>
@@ -12939,16 +12962,16 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" s="5">
-        <v>4664</v>
+        <v>4662</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E272" s="5" t="s">
         <v>899</v>
@@ -12956,45 +12979,48 @@
       <c r="F272" s="5" t="s">
         <v>914</v>
       </c>
+      <c r="G272" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I272" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" s="5">
-        <v>4666</v>
+        <v>4664</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E273" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F273" s="5" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="I273" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" s="5">
-        <v>4668</v>
+        <v>4666</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="E274" s="5" t="s">
         <v>899</v>
@@ -13008,16 +13034,16 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" s="5">
-        <v>4671</v>
+        <v>4668</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="E275" s="5" t="s">
         <v>899</v>
@@ -13026,44 +13052,44 @@
         <v>921</v>
       </c>
       <c r="I275" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" s="5">
-        <v>4672</v>
+        <v>4671</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="E276" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F276" s="5" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="I276" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" s="5">
-        <v>4673</v>
+        <v>4672</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E277" s="5" t="s">
         <v>899</v>
@@ -13077,16 +13103,16 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" s="5">
-        <v>4675</v>
+        <v>4673</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="E278" s="5" t="s">
         <v>899</v>
@@ -13100,16 +13126,16 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" s="5">
-        <v>4676</v>
+        <v>4675</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E279" s="5" t="s">
         <v>899</v>
@@ -13123,16 +13149,16 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" s="5">
-        <v>4678</v>
+        <v>4676</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="E280" s="5" t="s">
         <v>899</v>
@@ -13146,16 +13172,16 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" s="5">
-        <v>4679</v>
+        <v>4678</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="E281" s="5" t="s">
         <v>899</v>
@@ -13169,16 +13195,16 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" s="5">
-        <v>4680</v>
+        <v>4679</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="E282" s="5" t="s">
         <v>899</v>
@@ -13186,25 +13212,22 @@
       <c r="F282" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="G282" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I282" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" s="5">
-        <v>4682</v>
+        <v>4680</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="E283" s="5" t="s">
         <v>899</v>
@@ -13212,28 +13235,31 @@
       <c r="F283" s="5" t="s">
         <v>931</v>
       </c>
+      <c r="G283" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I283" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" s="5">
-        <v>4683</v>
+        <v>4682</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E284" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F284" s="5" t="s">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="I284" s="5" t="s">
         <v>27</v>
@@ -13241,22 +13267,22 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" s="5">
-        <v>4685</v>
+        <v>4683</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="E285" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F285" s="5" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="I285" s="5" t="s">
         <v>27</v>
@@ -13264,22 +13290,22 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286" s="5">
-        <v>4688</v>
+        <v>4685</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="E286" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F286" s="5" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="I286" s="5" t="s">
         <v>27</v>
@@ -13287,22 +13313,22 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287" s="5">
-        <v>4691</v>
+        <v>4688</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="E287" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F287" s="5" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="I287" s="5" t="s">
         <v>27</v>
@@ -13310,16 +13336,16 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288" s="5">
-        <v>4692</v>
+        <v>4691</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="E288" s="5" t="s">
         <v>899</v>
@@ -13327,25 +13353,22 @@
       <c r="F288" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="G288" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I288" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289" s="5">
-        <v>4693</v>
+        <v>4692</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E289" s="5" t="s">
         <v>899</v>
@@ -13353,22 +13376,25 @@
       <c r="F289" s="5" t="s">
         <v>968</v>
       </c>
+      <c r="G289" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I289" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290" s="5">
-        <v>4694</v>
+        <v>4693</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E290" s="5" t="s">
         <v>899</v>
@@ -13377,21 +13403,21 @@
         <v>968</v>
       </c>
       <c r="I290" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291" s="5">
-        <v>4696</v>
+        <v>4694</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E291" s="5" t="s">
         <v>899</v>
@@ -13405,16 +13431,16 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292" s="5">
-        <v>4697</v>
+        <v>4696</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E292" s="5" t="s">
         <v>899</v>
@@ -13422,34 +13448,34 @@
       <c r="F292" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="G292" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H292" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I292" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293" s="5">
-        <v>4698</v>
+        <v>4697</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="E293" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F293" s="5" t="s">
-        <v>987</v>
+        <v>968</v>
+      </c>
+      <c r="G293" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H293" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I293" s="5" t="s">
         <v>27</v>
@@ -13457,16 +13483,16 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294" s="5">
-        <v>4701</v>
+        <v>4698</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E294" s="5" t="s">
         <v>899</v>
@@ -13480,16 +13506,16 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295" s="5">
-        <v>4702</v>
+        <v>4701</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E295" s="5" t="s">
         <v>899</v>
@@ -13497,31 +13523,31 @@
       <c r="F295" s="5" t="s">
         <v>987</v>
       </c>
-      <c r="G295" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I295" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296" s="5">
-        <v>4704</v>
+        <v>4702</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E296" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F296" s="5" t="s">
-        <v>997</v>
+        <v>987</v>
+      </c>
+      <c r="G296" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I296" s="5" t="s">
         <v>27</v>
@@ -13529,16 +13555,16 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297" s="5">
-        <v>4705</v>
+        <v>4704</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E297" s="5" t="s">
         <v>899</v>
@@ -13552,16 +13578,16 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298" s="5">
-        <v>4706</v>
+        <v>4705</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E298" s="5" t="s">
         <v>899</v>
@@ -13570,21 +13596,21 @@
         <v>997</v>
       </c>
       <c r="I298" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299" s="5">
-        <v>4709</v>
+        <v>4706</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="E299" s="5" t="s">
         <v>899</v>
@@ -13598,16 +13624,16 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300" s="5">
-        <v>4711</v>
+        <v>4709</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C300" s="6" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="E300" s="5" t="s">
         <v>899</v>
@@ -13616,44 +13642,44 @@
         <v>997</v>
       </c>
       <c r="I300" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301" s="5">
-        <v>4721</v>
+        <v>4711</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="C301" s="6" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="E301" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F301" s="5" t="s">
-        <v>1013</v>
+        <v>997</v>
       </c>
       <c r="I301" s="5" t="s">
-        <v>684</v>
+        <v>27</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302" s="5">
-        <v>4724</v>
+        <v>4721</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C302" s="6" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E302" s="5" t="s">
         <v>899</v>
@@ -13662,21 +13688,21 @@
         <v>1013</v>
       </c>
       <c r="I302" s="5" t="s">
-        <v>27</v>
+        <v>684</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303" s="5">
-        <v>4725</v>
+        <v>4724</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E303" s="5" t="s">
         <v>899</v>
@@ -13684,25 +13710,22 @@
       <c r="F303" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="G303" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I303" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304" s="5">
-        <v>4727</v>
+        <v>4725</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C304" s="6" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E304" s="5" t="s">
         <v>899</v>
@@ -13711,10 +13734,7 @@
         <v>1013</v>
       </c>
       <c r="G304" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H304" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I304" s="5" t="s">
         <v>27</v>
@@ -13722,16 +13742,16 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305" s="5">
-        <v>4729</v>
+        <v>4727</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C305" s="6" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="E305" s="5" t="s">
         <v>899</v>
@@ -13740,7 +13760,10 @@
         <v>1013</v>
       </c>
       <c r="G305" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H305" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I305" s="5" t="s">
         <v>27</v>
@@ -13748,16 +13771,16 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306" s="5">
-        <v>4731</v>
+        <v>4729</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="E306" s="5" t="s">
         <v>899</v>
@@ -13774,16 +13797,16 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" s="5">
-        <v>4734</v>
+        <v>4731</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="E307" s="5" t="s">
         <v>899</v>
@@ -13791,22 +13814,25 @@
       <c r="F307" s="5" t="s">
         <v>1013</v>
       </c>
+      <c r="G307" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I307" s="5" t="s">
-        <v>684</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308" s="5">
-        <v>4742</v>
+        <v>4734</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C308" s="6" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="D308" s="5" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="E308" s="5" t="s">
         <v>899</v>
@@ -13815,21 +13841,21 @@
         <v>1013</v>
       </c>
       <c r="I308" s="5" t="s">
-        <v>59</v>
+        <v>684</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309" s="5">
-        <v>4743</v>
+        <v>4742</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D309" s="5" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="E309" s="5" t="s">
         <v>899</v>
@@ -13843,16 +13869,16 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" s="5">
-        <v>4744</v>
+        <v>4743</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C310" s="6" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="E310" s="5" t="s">
         <v>899</v>
@@ -13866,16 +13892,16 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311" s="5">
-        <v>4746</v>
+        <v>4744</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C311" s="6" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="E311" s="5" t="s">
         <v>899</v>
@@ -13889,16 +13915,16 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" s="5">
-        <v>4747</v>
+        <v>4746</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D312" s="5" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E312" s="5" t="s">
         <v>899</v>
@@ -13907,27 +13933,27 @@
         <v>1013</v>
       </c>
       <c r="I312" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313" s="5">
-        <v>4750</v>
+        <v>4747</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D313" s="5" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="E313" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F313" s="5" t="s">
-        <v>1050</v>
+        <v>1013</v>
       </c>
       <c r="I313" s="5" t="s">
         <v>27</v>
@@ -13935,25 +13961,22 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314" s="5">
-        <v>4753</v>
+        <v>4750</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C314" s="6" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E314" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F314" s="5" t="s">
-        <v>1054</v>
-      </c>
-      <c r="G314" s="5" t="s">
-        <v>43</v>
+        <v>1050</v>
       </c>
       <c r="I314" s="5" t="s">
         <v>27</v>
@@ -13961,16 +13984,16 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315" s="5">
-        <v>4770</v>
+        <v>4753</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C315" s="6" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E315" s="5" t="s">
         <v>899</v>
@@ -13987,16 +14010,16 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316" s="5">
-        <v>4774</v>
+        <v>4770</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D316" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="E316" s="5" t="s">
         <v>899</v>
@@ -14004,28 +14027,31 @@
       <c r="F316" s="5" t="s">
         <v>1054</v>
       </c>
+      <c r="G316" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I316" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" s="5">
-        <v>4777</v>
+        <v>4774</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="E317" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F317" s="5" t="s">
-        <v>1064</v>
+        <v>1054</v>
       </c>
       <c r="I317" s="5" t="s">
         <v>59</v>
@@ -14033,28 +14059,22 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318" s="5">
-        <v>4778</v>
+        <v>4777</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C318" s="6" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E318" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F318" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="G318" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H318" s="5" t="s">
-        <v>32</v>
+        <v>1064</v>
       </c>
       <c r="I318" s="5" t="s">
         <v>59</v>
@@ -14062,16 +14082,16 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319" s="5">
-        <v>4780</v>
+        <v>4778</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="C319" s="6" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E319" s="5" t="s">
         <v>899</v>
@@ -14080,30 +14100,36 @@
         <v>1068</v>
       </c>
       <c r="G319" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H319" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I319" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" s="5">
-        <v>4795</v>
+        <v>4780</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="C320" s="6" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D320" s="5" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="E320" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F320" s="5" t="s">
-        <v>1075</v>
+        <v>1068</v>
+      </c>
+      <c r="G320" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I320" s="5" t="s">
         <v>27</v>
@@ -14111,16 +14137,16 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321" s="5">
-        <v>4796</v>
+        <v>4795</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D321" s="5" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="E321" s="5" t="s">
         <v>899</v>
@@ -14129,21 +14155,21 @@
         <v>1075</v>
       </c>
       <c r="I321" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322" s="5">
-        <v>4803</v>
+        <v>4796</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C322" s="6" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D322" s="5" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="E322" s="5" t="s">
         <v>899</v>
@@ -14152,21 +14178,21 @@
         <v>1075</v>
       </c>
       <c r="I322" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323" s="5">
-        <v>4804</v>
+        <v>4803</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D323" s="5" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="E323" s="5" t="s">
         <v>899</v>
@@ -14180,16 +14206,16 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324" s="5">
-        <v>4805</v>
+        <v>4804</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>899</v>
@@ -14203,22 +14229,22 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" s="5">
-        <v>4808</v>
+        <v>4805</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E325" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F325" s="5" t="s">
-        <v>1091</v>
+        <v>1075</v>
       </c>
       <c r="I325" s="5" t="s">
         <v>27</v>
@@ -14226,16 +14252,16 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326" s="5">
-        <v>4810</v>
+        <v>4808</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="C326" s="6" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>899</v>
@@ -14249,16 +14275,16 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327" s="5">
-        <v>4817</v>
+        <v>4810</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="E327" s="5" t="s">
         <v>899</v>
@@ -14267,21 +14293,21 @@
         <v>1091</v>
       </c>
       <c r="I327" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328" s="5">
-        <v>4819</v>
+        <v>4817</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>899</v>
@@ -14295,45 +14321,45 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329" s="5">
-        <v>4826</v>
+        <v>4819</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="C329" s="6" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="E329" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F329" s="5" t="s">
-        <v>1104</v>
+        <v>1091</v>
       </c>
       <c r="I329" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" s="5">
-        <v>4830</v>
+        <v>4826</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C330" s="6" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F330" s="5" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="I330" s="5" t="s">
         <v>27</v>
@@ -14341,16 +14367,16 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331" s="5">
-        <v>4833</v>
+        <v>4830</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="E331" s="5" t="s">
         <v>899</v>
@@ -14364,16 +14390,16 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332" s="5">
-        <v>4834</v>
+        <v>4833</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="C332" s="6" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>899</v>
@@ -14382,21 +14408,21 @@
         <v>1108</v>
       </c>
       <c r="I332" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333" s="5">
-        <v>4842</v>
+        <v>4834</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D333" s="5" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="E333" s="5" t="s">
         <v>899</v>
@@ -14410,39 +14436,39 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334" s="5">
-        <v>4846</v>
+        <v>4842</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F334" s="5" t="s">
-        <v>1121</v>
+        <v>1108</v>
       </c>
       <c r="I334" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" s="5">
-        <v>4848</v>
+        <v>4846</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="C335" s="6" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D335" s="5" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="E335" s="5" t="s">
         <v>899</v>
@@ -14456,16 +14482,16 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336" s="5">
-        <v>4854</v>
+        <v>4848</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C336" s="6" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>899</v>
@@ -14479,16 +14505,16 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337" s="5">
-        <v>4856</v>
+        <v>4854</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C337" s="6" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D337" s="5" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E337" s="5" t="s">
         <v>899</v>
@@ -14502,16 +14528,16 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338" s="5">
-        <v>4857</v>
+        <v>4856</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C338" s="6" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>899</v>
@@ -14525,39 +14551,39 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" s="5">
-        <v>4860</v>
+        <v>4857</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="C339" s="6" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D339" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E339" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F339" s="5" t="s">
-        <v>1137</v>
+        <v>1121</v>
       </c>
       <c r="I339" s="5" t="s">
-        <v>684</v>
+        <v>27</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" s="5">
-        <v>4864</v>
+        <v>4860</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="E340" s="5" t="s">
         <v>899</v>
@@ -14571,16 +14597,16 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" s="5">
-        <v>4866</v>
+        <v>4864</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="E341" s="5" t="s">
         <v>899</v>
@@ -14589,21 +14615,21 @@
         <v>1137</v>
       </c>
       <c r="I341" s="5" t="s">
-        <v>27</v>
+        <v>684</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" s="5">
-        <v>4872</v>
+        <v>4866</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>899</v>
@@ -14612,21 +14638,21 @@
         <v>1137</v>
       </c>
       <c r="I342" s="5" t="s">
-        <v>684</v>
+        <v>27</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343" s="5">
-        <v>4876</v>
+        <v>4872</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="E343" s="5" t="s">
         <v>899</v>
@@ -14634,25 +14660,22 @@
       <c r="F343" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="G343" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I343" s="5" t="s">
-        <v>27</v>
+        <v>684</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344" s="5">
-        <v>4878</v>
+        <v>4876</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="C344" s="6" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>899</v>
@@ -14660,22 +14683,25 @@
       <c r="F344" s="5" t="s">
         <v>1137</v>
       </c>
+      <c r="G344" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I344" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" s="5">
-        <v>4880</v>
+        <v>4878</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="C345" s="6" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="E345" s="5" t="s">
         <v>899</v>
@@ -14689,16 +14715,16 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" s="5">
-        <v>4881</v>
+        <v>4880</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C346" s="6" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>899</v>
@@ -14706,31 +14732,31 @@
       <c r="F346" s="5" t="s">
         <v>1137</v>
       </c>
-      <c r="G346" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I346" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" s="5">
-        <v>4887</v>
+        <v>4881</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="C347" s="6" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="E347" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F347" s="5" t="s">
-        <v>1162</v>
+        <v>1137</v>
+      </c>
+      <c r="G347" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I347" s="5" t="s">
         <v>27</v>
@@ -14738,16 +14764,16 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" s="5">
-        <v>4892</v>
+        <v>4887</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C348" s="6" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>899</v>
@@ -14761,16 +14787,16 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" s="5">
-        <v>4894</v>
+        <v>4892</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C349" s="6" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D349" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="E349" s="5" t="s">
         <v>899</v>
@@ -14784,16 +14810,16 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350" s="5">
-        <v>4899</v>
+        <v>4894</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>899</v>
@@ -14807,16 +14833,16 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" s="5">
-        <v>4904</v>
+        <v>4899</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D351" s="5" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="E351" s="5" t="s">
         <v>899</v>
@@ -14830,16 +14856,16 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352" s="5">
-        <v>4906</v>
+        <v>4904</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="C352" s="6" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>899</v>
@@ -14853,16 +14879,16 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" s="5">
-        <v>4911</v>
+        <v>4906</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="C353" s="6" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="E353" s="5" t="s">
         <v>899</v>
@@ -14871,21 +14897,21 @@
         <v>1162</v>
       </c>
       <c r="I353" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354" s="5">
-        <v>4913</v>
+        <v>4911</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C354" s="6" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>899</v>
@@ -14899,16 +14925,16 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355" s="5">
-        <v>4914</v>
+        <v>4913</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C355" s="6" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D355" s="5" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E355" s="5" t="s">
         <v>899</v>
@@ -14917,21 +14943,21 @@
         <v>1162</v>
       </c>
       <c r="I355" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356" s="5">
-        <v>4918</v>
+        <v>4914</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C356" s="6" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>899</v>
@@ -14940,21 +14966,21 @@
         <v>1162</v>
       </c>
       <c r="I356" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357" s="5">
-        <v>4919</v>
+        <v>4918</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="C357" s="6" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D357" s="5" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="E357" s="5" t="s">
         <v>899</v>
@@ -14963,21 +14989,21 @@
         <v>1162</v>
       </c>
       <c r="I357" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358" s="5">
-        <v>4922</v>
+        <v>4919</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>899</v>
@@ -14991,16 +15017,16 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359" s="5">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D359" s="5" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="E359" s="5" t="s">
         <v>899</v>
@@ -15014,16 +15040,16 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360" s="5">
-        <v>4929</v>
+        <v>4923</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="C360" s="6" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>899</v>
@@ -15037,16 +15063,16 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361" s="5">
-        <v>4931</v>
+        <v>4929</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C361" s="6" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D361" s="5" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="E361" s="5" t="s">
         <v>899</v>
@@ -15054,31 +15080,31 @@
       <c r="F361" s="5" t="s">
         <v>1162</v>
       </c>
-      <c r="G361" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I361" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362" s="5">
-        <v>4935</v>
+        <v>4931</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C362" s="6" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F362" s="5" t="s">
-        <v>1208</v>
+        <v>1162</v>
+      </c>
+      <c r="G362" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I362" s="5" t="s">
         <v>27</v>
@@ -15086,16 +15112,16 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363" s="5">
-        <v>4937</v>
+        <v>4935</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D363" s="5" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="E363" s="5" t="s">
         <v>899</v>
@@ -15104,21 +15130,21 @@
         <v>1208</v>
       </c>
       <c r="I363" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364" s="5">
-        <v>4940</v>
+        <v>4937</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>899</v>
@@ -15127,21 +15153,21 @@
         <v>1208</v>
       </c>
       <c r="I364" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365" s="5">
-        <v>4941</v>
+        <v>4940</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="D365" s="5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="E365" s="5" t="s">
         <v>899</v>
@@ -15155,16 +15181,16 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366" s="5">
-        <v>4951</v>
+        <v>4941</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>899</v>
@@ -15178,16 +15204,16 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367" s="5">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D367" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="E367" s="5" t="s">
         <v>899</v>
@@ -15201,77 +15227,71 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368" s="5">
-        <v>4963</v>
+        <v>4952</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F368" s="5" t="s">
-        <v>1227</v>
+        <v>1208</v>
       </c>
       <c r="I368" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369" s="5">
-        <v>4998</v>
+        <v>4963</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="C369" s="6" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D369" s="5" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="E369" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F369" s="5" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G369" s="5" t="s">
-        <v>43</v>
+        <v>1227</v>
       </c>
       <c r="I369" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370" s="5">
-        <v>5011</v>
+        <v>4998</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F370" s="5" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="G370" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H370" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I370" s="5" t="s">
         <v>27</v>
@@ -15279,16 +15299,16 @@
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371" s="5">
-        <v>5013</v>
+        <v>5011</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D371" s="5" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="E371" s="5" t="s">
         <v>899</v>
@@ -15297,7 +15317,10 @@
         <v>1235</v>
       </c>
       <c r="G371" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H371" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I371" s="5" t="s">
         <v>27</v>
@@ -15305,22 +15328,22 @@
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372" s="5">
-        <v>5016</v>
+        <v>5013</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F372" s="5" t="s">
-        <v>1242</v>
+        <v>1235</v>
       </c>
       <c r="G372" s="5" t="s">
         <v>43</v>
@@ -15331,16 +15354,16 @@
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373" s="5">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="D373" s="5" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="E373" s="5" t="s">
         <v>899</v>
@@ -15357,16 +15380,16 @@
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374" s="5">
-        <v>5036</v>
+        <v>5022</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>899</v>
@@ -15383,16 +15406,16 @@
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375" s="5">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D375" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="E375" s="5" t="s">
         <v>899</v>
@@ -15409,22 +15432,22 @@
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376" s="5">
-        <v>5048</v>
+        <v>5037</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F376" s="5" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="G376" s="5" t="s">
         <v>43</v>
@@ -15435,16 +15458,16 @@
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377" s="5">
-        <v>5053</v>
+        <v>5048</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D377" s="5" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="E377" s="5" t="s">
         <v>899</v>
@@ -15461,16 +15484,16 @@
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378" s="5">
-        <v>5056</v>
+        <v>5053</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>899</v>
@@ -15482,76 +15505,73 @@
         <v>43</v>
       </c>
       <c r="I378" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379" s="5">
-        <v>5064</v>
+        <v>5056</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D379" s="5" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
       <c r="E379" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F379" s="5" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="G379" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I379" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380" s="5">
-        <v>5067</v>
+        <v>5064</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F380" s="5" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="G380" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H380" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I380" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381" s="5">
-        <v>5070</v>
+        <v>5067</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="D381" s="5" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="E381" s="5" t="s">
         <v>899</v>
@@ -15560,24 +15580,27 @@
         <v>1269</v>
       </c>
       <c r="G381" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H381" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I381" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382" s="5">
-        <v>5074</v>
+        <v>5070</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>899</v>
@@ -15594,16 +15617,16 @@
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383" s="5">
-        <v>5085</v>
+        <v>5074</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="D383" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="E383" s="5" t="s">
         <v>899</v>
@@ -15612,10 +15635,7 @@
         <v>1269</v>
       </c>
       <c r="G383" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H383" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I383" s="5" t="s">
         <v>27</v>
@@ -15623,16 +15643,16 @@
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384" s="5">
-        <v>5088</v>
+        <v>5085</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>899</v>
@@ -15641,7 +15661,10 @@
         <v>1269</v>
       </c>
       <c r="G384" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H384" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I384" s="5" t="s">
         <v>27</v>
@@ -15649,16 +15672,16 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385" s="5">
-        <v>5126</v>
+        <v>5088</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D385" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="E385" s="5" t="s">
         <v>899</v>
@@ -15666,77 +15689,74 @@
       <c r="F385" s="5" t="s">
         <v>1269</v>
       </c>
-      <c r="I385" s="7" t="s">
-        <v>59</v>
+      <c r="G385" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I385" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386" s="5">
-        <v>5152</v>
+        <v>5126</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F386" s="5" t="s">
-        <v>1288</v>
-      </c>
-      <c r="G386" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I386" s="5" t="s">
-        <v>27</v>
+        <v>1269</v>
+      </c>
+      <c r="I386" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387" s="5">
-        <v>5162</v>
+        <v>5152</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
       <c r="D387" s="5" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
       <c r="E387" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F387" s="5" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
       <c r="G387" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H387" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I387" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388" s="5">
-        <v>5164</v>
+        <v>5162</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>899</v>
@@ -15745,24 +15765,27 @@
         <v>1292</v>
       </c>
       <c r="G388" s="5" t="s">
-        <v>43</v>
+        <v>31</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I388" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389" s="5">
-        <v>5167</v>
+        <v>5164</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E389" s="5" t="s">
         <v>899</v>
@@ -15770,22 +15793,25 @@
       <c r="F389" s="5" t="s">
         <v>1292</v>
       </c>
+      <c r="G389" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I389" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390" s="5">
-        <v>5169</v>
+        <v>5167</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>899</v>
@@ -15793,25 +15819,22 @@
       <c r="F390" s="5" t="s">
         <v>1292</v>
       </c>
-      <c r="G390" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I390" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391" s="5">
-        <v>5170</v>
+        <v>5169</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D391" s="5" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E391" s="5" t="s">
         <v>899</v>
@@ -15819,22 +15842,25 @@
       <c r="F391" s="5" t="s">
         <v>1292</v>
       </c>
+      <c r="G391" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I391" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392" s="5">
-        <v>5171</v>
+        <v>5170</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>899</v>
@@ -15843,21 +15869,21 @@
         <v>1292</v>
       </c>
       <c r="I392" s="5" t="s">
-        <v>684</v>
+        <v>27</v>
       </c>
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393" s="5">
-        <v>5174</v>
+        <v>5171</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="D393" s="5" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E393" s="5" t="s">
         <v>899</v>
@@ -15866,21 +15892,21 @@
         <v>1292</v>
       </c>
       <c r="I393" s="5" t="s">
-        <v>59</v>
+        <v>684</v>
       </c>
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394" s="5">
-        <v>5176</v>
+        <v>5174</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>899</v>
@@ -15889,21 +15915,21 @@
         <v>1292</v>
       </c>
       <c r="I394" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395" s="5">
-        <v>5180</v>
+        <v>5176</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="D395" s="5" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E395" s="5" t="s">
         <v>899</v>
@@ -15912,47 +15938,44 @@
         <v>1292</v>
       </c>
       <c r="I395" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396" s="5">
-        <v>5181</v>
+        <v>5180</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F396" s="5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="G396" s="5" t="s">
-        <v>43</v>
+        <v>1292</v>
       </c>
       <c r="I396" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397" s="5">
-        <v>5182</v>
+        <v>5181</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="D397" s="5" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E397" s="5" t="s">
         <v>899</v>
@@ -15969,16 +15992,16 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398" s="5">
-        <v>5187</v>
+        <v>5182</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="D398" s="5" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>899</v>
@@ -15995,16 +16018,16 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399" s="5">
-        <v>5192</v>
+        <v>5187</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="D399" s="5" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="E399" s="5" t="s">
         <v>899</v>
@@ -16021,16 +16044,16 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400" s="5">
-        <v>5195</v>
+        <v>5192</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>899</v>
@@ -16047,16 +16070,16 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401" s="5">
-        <v>5199</v>
+        <v>5195</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
       <c r="D401" s="5" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="E401" s="5" t="s">
         <v>899</v>
@@ -16073,16 +16096,16 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402" s="5">
-        <v>5205</v>
+        <v>5199</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="D402" s="5" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>899</v>
@@ -16099,16 +16122,16 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403" s="5">
-        <v>5206</v>
+        <v>5205</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="D403" s="5" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="E403" s="5" t="s">
         <v>899</v>
@@ -16125,16 +16148,16 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404" s="5">
-        <v>5207</v>
+        <v>5206</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="D404" s="5" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>899</v>
@@ -16151,16 +16174,16 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405" s="5">
-        <v>5211</v>
+        <v>5207</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="D405" s="5" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="E405" s="5" t="s">
         <v>899</v>
@@ -16177,16 +16200,16 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406" s="5">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="D406" s="5" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>899</v>
@@ -16195,50 +16218,53 @@
         <v>1320</v>
       </c>
       <c r="G406" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H406" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I406" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407" s="5">
-        <v>5220</v>
+        <v>5217</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="D407" s="5" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E407" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F407" s="5" t="s">
-        <v>1354</v>
+        <v>1320</v>
+      </c>
+      <c r="G407" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H407" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="I407" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408" s="5">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="D408" s="5" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>899</v>
@@ -16252,16 +16278,16 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409" s="5">
-        <v>5223</v>
+        <v>5221</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="D409" s="5" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="E409" s="5" t="s">
         <v>899</v>
@@ -16275,16 +16301,16 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410" s="5">
-        <v>5224</v>
+        <v>5223</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="D410" s="5" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>899</v>
@@ -16298,16 +16324,16 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411" s="5">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="D411" s="5" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E411" s="5" t="s">
         <v>899</v>
@@ -16321,16 +16347,16 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412" s="5">
-        <v>5227</v>
+        <v>5225</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="D412" s="5" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>899</v>
@@ -16344,16 +16370,16 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413" s="5">
-        <v>5229</v>
+        <v>5227</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="D413" s="5" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="E413" s="5" t="s">
         <v>899</v>
@@ -16367,16 +16393,16 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414" s="5">
-        <v>5230</v>
+        <v>5229</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="D414" s="5" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>899</v>
@@ -16384,25 +16410,22 @@
       <c r="F414" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="G414" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I414" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415" s="5">
-        <v>5236</v>
+        <v>5230</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="D415" s="5" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="E415" s="5" t="s">
         <v>899</v>
@@ -16411,27 +16434,24 @@
         <v>1354</v>
       </c>
       <c r="G415" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H415" s="5" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="I415" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416" s="5">
-        <v>5237</v>
+        <v>5236</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="D416" s="5" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>899</v>
@@ -16443,24 +16463,24 @@
         <v>31</v>
       </c>
       <c r="H416" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I416" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417" s="5">
-        <v>5242</v>
+        <v>5237</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="D417" s="5" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="E417" s="5" t="s">
         <v>899</v>
@@ -16468,22 +16488,28 @@
       <c r="F417" s="5" t="s">
         <v>1354</v>
       </c>
+      <c r="G417" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H417" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I417" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418" s="5">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="D418" s="5" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>899</v>
@@ -16492,21 +16518,21 @@
         <v>1354</v>
       </c>
       <c r="I418" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419" s="5">
-        <v>5244</v>
+        <v>5243</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="D419" s="5" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="E419" s="5" t="s">
         <v>899</v>
@@ -16514,25 +16540,22 @@
       <c r="F419" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="G419" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I419" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420" s="5">
-        <v>5245</v>
+        <v>5244</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="D420" s="5" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>899</v>
@@ -16540,22 +16563,25 @@
       <c r="F420" s="5" t="s">
         <v>1354</v>
       </c>
+      <c r="G420" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I420" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421" s="5">
-        <v>5249</v>
+        <v>5245</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="E421" s="5" t="s">
         <v>899</v>
@@ -16569,16 +16595,16 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422" s="5">
-        <v>5254</v>
+        <v>5249</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>899</v>
@@ -16592,16 +16618,16 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423" s="5">
-        <v>5255</v>
+        <v>5254</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="D423" s="5" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="E423" s="5" t="s">
         <v>899</v>
@@ -16615,16 +16641,16 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424" s="5">
-        <v>5258</v>
+        <v>5255</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D424" s="5" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>899</v>
@@ -16638,16 +16664,16 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425" s="5">
-        <v>5259</v>
+        <v>5258</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="C425" s="6" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="D425" s="5" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="E425" s="5" t="s">
         <v>899</v>
@@ -16655,28 +16681,22 @@
       <c r="F425" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="G425" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H425" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="I425" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426" s="5">
-        <v>5264</v>
+        <v>5259</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="C426" s="6" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="D426" s="5" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>899</v>
@@ -16696,16 +16716,16 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427" s="5">
-        <v>5267</v>
+        <v>5264</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="C427" s="6" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D427" s="5" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="E427" s="5" t="s">
         <v>899</v>
@@ -16713,22 +16733,28 @@
       <c r="F427" s="5" t="s">
         <v>1354</v>
       </c>
+      <c r="G427" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H427" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I427" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428" s="5">
-        <v>5272</v>
+        <v>5267</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="C428" s="6" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="D428" s="5" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>899</v>
@@ -16742,16 +16768,16 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429" s="5">
-        <v>5278</v>
+        <v>5272</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="C429" s="6" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="D429" s="5" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="E429" s="5" t="s">
         <v>899</v>
@@ -16760,21 +16786,21 @@
         <v>1354</v>
       </c>
       <c r="I429" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430" s="5">
-        <v>5279</v>
+        <v>5278</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="C430" s="6" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="D430" s="5" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>899</v>
@@ -16783,21 +16809,21 @@
         <v>1354</v>
       </c>
       <c r="I430" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431" s="5">
-        <v>5282</v>
+        <v>5279</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="C431" s="6" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="D431" s="5" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E431" s="5" t="s">
         <v>899</v>
@@ -16811,16 +16837,16 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432" s="5">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="C432" s="6" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="D432" s="5" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>899</v>
@@ -16834,16 +16860,16 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433" s="5">
-        <v>5285</v>
+        <v>5284</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="C433" s="6" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="D433" s="5" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E433" s="5" t="s">
         <v>899</v>
@@ -16857,16 +16883,16 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434" s="5">
-        <v>5286</v>
+        <v>5285</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C434" s="6" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="D434" s="5" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>899</v>
@@ -16875,21 +16901,21 @@
         <v>1354</v>
       </c>
       <c r="I434" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435" s="5">
-        <v>5287</v>
+        <v>5286</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C435" s="6" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D435" s="5" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="E435" s="5" t="s">
         <v>899</v>
@@ -16903,16 +16929,16 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436" s="5">
-        <v>5292</v>
+        <v>5287</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="C436" s="6" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="D436" s="5" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>899</v>
@@ -16921,21 +16947,21 @@
         <v>1354</v>
       </c>
       <c r="I436" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437" s="5">
-        <v>5293</v>
+        <v>5292</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="C437" s="6" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="D437" s="5" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="E437" s="5" t="s">
         <v>899</v>
@@ -16949,16 +16975,16 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438" s="5">
-        <v>5294</v>
+        <v>5293</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="C438" s="6" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="D438" s="5" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>899</v>
@@ -16967,21 +16993,21 @@
         <v>1354</v>
       </c>
       <c r="I438" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439" s="5">
-        <v>5295</v>
+        <v>5294</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="C439" s="6" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="D439" s="5" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="E439" s="5" t="s">
         <v>899</v>
@@ -16990,21 +17016,21 @@
         <v>1354</v>
       </c>
       <c r="I439" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440" s="5">
-        <v>5296</v>
+        <v>5295</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C440" s="6" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="D440" s="5" t="s">
-        <v>1453</v>
+        <v>1450</v>
       </c>
       <c r="E440" s="5" t="s">
         <v>899</v>
@@ -17018,16 +17044,16 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441" s="5">
-        <v>5308</v>
+        <v>5296</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1454</v>
+        <v>1451</v>
       </c>
       <c r="C441" s="6" t="s">
-        <v>1455</v>
+        <v>1452</v>
       </c>
       <c r="D441" s="5" t="s">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="E441" s="5" t="s">
         <v>899</v>
@@ -17041,16 +17067,16 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442" s="5">
-        <v>5311</v>
+        <v>5308</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1457</v>
+        <v>1454</v>
       </c>
       <c r="C442" s="6" t="s">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>899</v>
@@ -17064,16 +17090,16 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443" s="5">
-        <v>5312</v>
+        <v>5311</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="C443" s="6" t="s">
-        <v>1461</v>
+        <v>1458</v>
       </c>
       <c r="D443" s="5" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="E443" s="5" t="s">
         <v>899</v>
@@ -17087,16 +17113,16 @@
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444" s="5">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1463</v>
+        <v>1460</v>
       </c>
       <c r="C444" s="6" t="s">
-        <v>1464</v>
+        <v>1461</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>899</v>
@@ -17110,16 +17136,16 @@
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445" s="5">
-        <v>5315</v>
+        <v>5314</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1466</v>
+        <v>1463</v>
       </c>
       <c r="C445" s="6" t="s">
-        <v>1467</v>
+        <v>1464</v>
       </c>
       <c r="D445" s="5" t="s">
-        <v>1468</v>
+        <v>1465</v>
       </c>
       <c r="E445" s="5" t="s">
         <v>899</v>
@@ -17133,16 +17159,16 @@
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446" s="5">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1469</v>
+        <v>1466</v>
       </c>
       <c r="C446" s="6" t="s">
-        <v>1470</v>
+        <v>1467</v>
       </c>
       <c r="D446" s="5" t="s">
-        <v>1471</v>
+        <v>1468</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>899</v>
@@ -17156,16 +17182,16 @@
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447" s="5">
-        <v>5321</v>
+        <v>5317</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1472</v>
+        <v>1469</v>
       </c>
       <c r="C447" s="6" t="s">
-        <v>1473</v>
+        <v>1470</v>
       </c>
       <c r="D447" s="5" t="s">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="E447" s="5" t="s">
         <v>899</v>
@@ -17179,16 +17205,16 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448" s="5">
-        <v>5324</v>
+        <v>5321</v>
       </c>
       <c r="B448" s="5" t="s">
-        <v>1475</v>
+        <v>1472</v>
       </c>
       <c r="C448" s="6" t="s">
-        <v>1476</v>
+        <v>1473</v>
       </c>
       <c r="D448" s="5" t="s">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="E448" s="5" t="s">
         <v>899</v>
@@ -17197,53 +17223,50 @@
         <v>1354</v>
       </c>
       <c r="I448" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449" s="5">
-        <v>5338</v>
+        <v>5324</v>
       </c>
       <c r="B449" s="5" t="s">
-        <v>1478</v>
+        <v>1475</v>
       </c>
       <c r="C449" s="6" t="s">
-        <v>1479</v>
+        <v>1476</v>
       </c>
       <c r="D449" s="5" t="s">
-        <v>1480</v>
+        <v>1477</v>
       </c>
       <c r="E449" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F449" s="5" t="s">
-        <v>1481</v>
-      </c>
-      <c r="G449" s="5" t="s">
-        <v>43</v>
+        <v>1354</v>
       </c>
       <c r="I449" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450" s="5">
-        <v>5343</v>
+        <v>5338</v>
       </c>
       <c r="B450" s="5" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C450" s="6" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D450" s="5" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="E450" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F450" s="5" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="G450" s="5" t="s">
         <v>43</v>
@@ -17254,16 +17277,16 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451" s="5">
-        <v>5344</v>
+        <v>5343</v>
       </c>
       <c r="B451" s="5" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="C451" s="6" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D451" s="5" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="E451" s="5" t="s">
         <v>899</v>
@@ -17271,22 +17294,25 @@
       <c r="F451" s="5" t="s">
         <v>1485</v>
       </c>
+      <c r="G451" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="I451" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452" s="5">
-        <v>5345</v>
+        <v>5344</v>
       </c>
       <c r="B452" s="5" t="s">
-        <v>1489</v>
+        <v>1486</v>
       </c>
       <c r="C452" s="6" t="s">
-        <v>1490</v>
+        <v>1487</v>
       </c>
       <c r="D452" s="5" t="s">
-        <v>1491</v>
+        <v>1488</v>
       </c>
       <c r="E452" s="5" t="s">
         <v>899</v>
@@ -17300,22 +17326,22 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453" s="5">
-        <v>5352</v>
+        <v>5345</v>
       </c>
       <c r="B453" s="5" t="s">
-        <v>1492</v>
+        <v>1489</v>
       </c>
       <c r="C453" s="6" t="s">
-        <v>1493</v>
+        <v>1490</v>
       </c>
       <c r="D453" s="5" t="s">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="E453" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F453" s="5" t="s">
-        <v>1495</v>
+        <v>1485</v>
       </c>
       <c r="I453" s="5" t="s">
         <v>27</v>
@@ -17323,16 +17349,16 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454" s="5">
-        <v>5358</v>
+        <v>5352</v>
       </c>
       <c r="B454" s="5" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="C454" s="6" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="D454" s="5" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>899</v>
@@ -17340,31 +17366,31 @@
       <c r="F454" s="5" t="s">
         <v>1495</v>
       </c>
-      <c r="G454" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="I454" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455" s="5">
-        <v>5374</v>
+        <v>5358</v>
       </c>
       <c r="B455" s="5" t="s">
-        <v>1499</v>
+        <v>1496</v>
       </c>
       <c r="C455" s="6" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
       <c r="D455" s="5" t="s">
-        <v>1501</v>
+        <v>1498</v>
       </c>
       <c r="E455" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F455" s="5" t="s">
-        <v>1502</v>
+        <v>1495</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="I455" s="5" t="s">
         <v>27</v>
@@ -17372,16 +17398,16 @@
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456" s="5">
-        <v>5375</v>
+        <v>5374</v>
       </c>
       <c r="B456" s="5" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="C456" s="6" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D456" s="5" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="E456" s="5" t="s">
         <v>899</v>
@@ -17395,22 +17421,22 @@
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457" s="5">
-        <v>5383</v>
+        <v>5375</v>
       </c>
       <c r="B457" s="5" t="s">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="C457" s="6" t="s">
-        <v>1507</v>
+        <v>1504</v>
       </c>
       <c r="D457" s="5" t="s">
-        <v>1508</v>
+        <v>1505</v>
       </c>
       <c r="E457" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F457" s="5" t="s">
-        <v>1509</v>
+        <v>1502</v>
       </c>
       <c r="I457" s="5" t="s">
         <v>27</v>
@@ -17418,22 +17444,22 @@
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458" s="5">
-        <v>5392</v>
+        <v>5383</v>
       </c>
       <c r="B458" s="5" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="C458" s="6" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="D458" s="5" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="E458" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F458" s="5" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="I458" s="5" t="s">
         <v>27</v>
@@ -17441,16 +17467,16 @@
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459" s="5">
-        <v>5395</v>
+        <v>5392</v>
       </c>
       <c r="B459" s="5" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="C459" s="6" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="D459" s="5" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="E459" s="5" t="s">
         <v>899</v>
@@ -17464,16 +17490,16 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460" s="5">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="B460" s="5" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="C460" s="6" t="s">
-        <v>1518</v>
+        <v>1515</v>
       </c>
       <c r="D460" s="5" t="s">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E460" s="5" t="s">
         <v>899</v>
@@ -17487,16 +17513,16 @@
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461" s="5">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="B461" s="5" t="s">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="C461" s="6" t="s">
-        <v>1521</v>
+        <v>1518</v>
       </c>
       <c r="D461" s="5" t="s">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="E461" s="5" t="s">
         <v>899</v>
@@ -17510,16 +17536,16 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462" s="5">
-        <v>5398</v>
+        <v>5397</v>
       </c>
       <c r="B462" s="5" t="s">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="C462" s="6" t="s">
-        <v>1524</v>
+        <v>1521</v>
       </c>
       <c r="D462" s="5" t="s">
-        <v>1525</v>
+        <v>1522</v>
       </c>
       <c r="E462" s="5" t="s">
         <v>899</v>
@@ -17528,21 +17554,21 @@
         <v>1513</v>
       </c>
       <c r="I462" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463" s="5">
-        <v>5402</v>
+        <v>5398</v>
       </c>
       <c r="B463" s="5" t="s">
-        <v>1526</v>
+        <v>1523</v>
       </c>
       <c r="C463" s="6" t="s">
-        <v>1527</v>
+        <v>1524</v>
       </c>
       <c r="D463" s="5" t="s">
-        <v>1528</v>
+        <v>1525</v>
       </c>
       <c r="E463" s="5" t="s">
         <v>899</v>
@@ -17551,21 +17577,21 @@
         <v>1513</v>
       </c>
       <c r="I463" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464" s="5">
-        <v>5404</v>
+        <v>5402</v>
       </c>
       <c r="B464" s="5" t="s">
-        <v>1529</v>
+        <v>1526</v>
       </c>
       <c r="C464" s="6" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="D464" s="5" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="E464" s="5" t="s">
         <v>899</v>
@@ -17574,21 +17600,21 @@
         <v>1513</v>
       </c>
       <c r="I464" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465" s="5">
-        <v>5407</v>
+        <v>5404</v>
       </c>
       <c r="B465" s="5" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="C465" s="6" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D465" s="5" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="E465" s="5" t="s">
         <v>899</v>
@@ -17597,21 +17623,21 @@
         <v>1513</v>
       </c>
       <c r="I465" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466" s="5">
-        <v>5408</v>
+        <v>5407</v>
       </c>
       <c r="B466" s="5" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="C466" s="6" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D466" s="5" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="E466" s="5" t="s">
         <v>899</v>
@@ -17625,16 +17651,16 @@
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467" s="5">
-        <v>5409</v>
+        <v>5408</v>
       </c>
       <c r="B467" s="5" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="C467" s="6" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D467" s="5" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="E467" s="5" t="s">
         <v>899</v>
@@ -17643,21 +17669,21 @@
         <v>1513</v>
       </c>
       <c r="I467" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468" s="5">
-        <v>5411</v>
+        <v>5409</v>
       </c>
       <c r="B468" s="5" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="C468" s="6" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D468" s="5" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="E468" s="5" t="s">
         <v>899</v>
@@ -17666,44 +17692,44 @@
         <v>1513</v>
       </c>
       <c r="I468" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469" s="5">
-        <v>5413</v>
+        <v>5411</v>
       </c>
       <c r="B469" s="5" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="C469" s="6" t="s">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="D469" s="5" t="s">
-        <v>1546</v>
+        <v>1543</v>
       </c>
       <c r="E469" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F469" s="5" t="s">
-        <v>1547</v>
+        <v>1513</v>
       </c>
       <c r="I469" s="5" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470" s="5">
-        <v>5418</v>
+        <v>5413</v>
       </c>
       <c r="B470" s="5" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="C470" s="6" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D470" s="5" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="E470" s="5" t="s">
         <v>899</v>
@@ -17712,21 +17738,21 @@
         <v>1547</v>
       </c>
       <c r="I470" s="5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471" s="5">
-        <v>5419</v>
+        <v>5418</v>
       </c>
       <c r="B471" s="5" t="s">
-        <v>1551</v>
+        <v>1548</v>
       </c>
       <c r="C471" s="6" t="s">
-        <v>1552</v>
+        <v>1549</v>
       </c>
       <c r="D471" s="5" t="s">
-        <v>1553</v>
+        <v>1550</v>
       </c>
       <c r="E471" s="5" t="s">
         <v>899</v>
@@ -17740,16 +17766,16 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472" s="5">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="B472" s="5" t="s">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>1555</v>
+        <v>1552</v>
       </c>
       <c r="D472" s="5" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="E472" s="5" t="s">
         <v>899</v>
@@ -17763,16 +17789,16 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473" s="5">
-        <v>5463</v>
+        <v>5420</v>
       </c>
       <c r="B473" s="5" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1558</v>
+        <v>1555</v>
       </c>
       <c r="D473" s="5" t="s">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="E473" s="5" t="s">
         <v>899</v>
@@ -17786,16 +17812,16 @@
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474" s="5">
-        <v>5475</v>
+        <v>5463</v>
       </c>
       <c r="B474" s="5" t="s">
-        <v>1560</v>
+        <v>1557</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="D474" s="5" t="s">
-        <v>1562</v>
+        <v>1559</v>
       </c>
       <c r="E474" s="5" t="s">
         <v>899</v>
@@ -17809,22 +17835,22 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475" s="5">
-        <v>5478</v>
+        <v>5475</v>
       </c>
       <c r="B475" s="5" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>1564</v>
+        <v>1561</v>
       </c>
       <c r="D475" s="5" t="s">
-        <v>1565</v>
+        <v>1562</v>
       </c>
       <c r="E475" s="5" t="s">
         <v>899</v>
       </c>
       <c r="F475" s="5" t="s">
-        <v>1566</v>
+        <v>1547</v>
       </c>
       <c r="I475" s="5" t="s">
         <v>27</v>
@@ -17832,16 +17858,16 @@
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476" s="5">
-        <v>5479</v>
+        <v>5478</v>
       </c>
       <c r="B476" s="5" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D476" s="5" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="E476" s="5" t="s">
         <v>899</v>
@@ -17855,16 +17881,16 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477" s="5">
-        <v>5482</v>
+        <v>5479</v>
       </c>
       <c r="B477" s="5" t="s">
-        <v>1570</v>
+        <v>1567</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>1571</v>
+        <v>1568</v>
       </c>
       <c r="D477" s="5" t="s">
-        <v>1572</v>
+        <v>1569</v>
       </c>
       <c r="E477" s="5" t="s">
         <v>899</v>
@@ -17878,16 +17904,16 @@
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478" s="5">
-        <v>5499</v>
+        <v>5482</v>
       </c>
       <c r="B478" s="5" t="s">
-        <v>1573</v>
+        <v>1570</v>
       </c>
       <c r="C478" s="6" t="s">
-        <v>1574</v>
+        <v>1571</v>
       </c>
       <c r="D478" s="5" t="s">
-        <v>1575</v>
+        <v>1572</v>
       </c>
       <c r="E478" s="5" t="s">
         <v>899</v>
@@ -17895,28 +17921,22 @@
       <c r="F478" s="5" t="s">
         <v>1566</v>
       </c>
-      <c r="G478" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H478" s="5" t="s">
-        <v>524</v>
-      </c>
       <c r="I478" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479" s="5">
-        <v>5501</v>
+        <v>5499</v>
       </c>
       <c r="B479" s="5" t="s">
-        <v>1576</v>
+        <v>1573</v>
       </c>
       <c r="C479" s="6" t="s">
-        <v>1577</v>
+        <v>1574</v>
       </c>
       <c r="D479" s="5" t="s">
-        <v>1578</v>
+        <v>1575</v>
       </c>
       <c r="E479" s="5" t="s">
         <v>899</v>
@@ -17924,22 +17944,28 @@
       <c r="F479" s="5" t="s">
         <v>1566</v>
       </c>
+      <c r="G479" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H479" s="5" t="s">
+        <v>524</v>
+      </c>
       <c r="I479" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480" s="5">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="B480" s="5" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="C480" s="6" t="s">
-        <v>1580</v>
+        <v>1577</v>
       </c>
       <c r="D480" s="5" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
       <c r="E480" s="5" t="s">
         <v>899</v>
@@ -17953,16 +17979,16 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481" s="5">
-        <v>5505</v>
+        <v>5502</v>
       </c>
       <c r="B481" s="5" t="s">
-        <v>1582</v>
+        <v>1579</v>
       </c>
       <c r="C481" s="6" t="s">
-        <v>1583</v>
+        <v>1580</v>
       </c>
       <c r="D481" s="5" t="s">
-        <v>1584</v>
+        <v>1581</v>
       </c>
       <c r="E481" s="5" t="s">
         <v>899</v>
@@ -17976,16 +18002,16 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482" s="5">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="B482" s="5" t="s">
-        <v>1585</v>
+        <v>1582</v>
       </c>
       <c r="C482" s="6" t="s">
-        <v>1586</v>
+        <v>1583</v>
       </c>
       <c r="D482" s="5" t="s">
-        <v>1587</v>
+        <v>1584</v>
       </c>
       <c r="E482" s="5" t="s">
         <v>899</v>
@@ -17994,6 +18020,29 @@
         <v>1566</v>
       </c>
       <c r="I482" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A483" s="5">
+        <v>5507</v>
+      </c>
+      <c r="B483" s="5" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C483" s="6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D483" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E483" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>1566</v>
+      </c>
+      <c r="I483" s="5" t="s">
         <v>27</v>
       </c>
     </row>
